--- a/ResultadoEleicoesDistritos/COIMBRA_OLIVEIRA DO HOSPITAL.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_OLIVEIRA DO HOSPITAL.xlsx
@@ -597,64 +597,64 @@
         <v>5173</v>
       </c>
       <c r="H2" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I2" t="n">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="J2" t="n">
-        <v>2157</v>
+        <v>2223</v>
       </c>
       <c r="K2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2" t="n">
+        <v>561</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29</v>
+      </c>
+      <c r="N2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
         <v>11</v>
       </c>
-      <c r="L2" t="n">
-        <v>591</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35</v>
-      </c>
-      <c r="N2" t="n">
-        <v>380</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10</v>
-      </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="U2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>3305</v>
+        <v>3281</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>3232</v>
+        <v>3302</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
